--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
+  </si>
+  <si>
+    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
+ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -1543,10 +1547,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1983,10 +1987,10 @@
         <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -1997,10 +2001,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2011,7 +2015,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -2020,19 +2024,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2082,13 +2086,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -2108,10 +2112,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2122,7 +2126,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -2131,16 +2135,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2191,19 +2195,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2217,10 +2221,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2231,28 +2235,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2302,19 +2306,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2328,10 +2332,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2342,7 +2346,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2354,16 +2358,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2389,13 +2393,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2413,19 +2417,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2439,21 +2443,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2465,16 +2469,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2524,22 +2528,22 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2550,14 +2554,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2576,16 +2580,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2635,7 +2639,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2650,7 +2654,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2661,10 +2665,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2687,13 +2691,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2732,17 +2736,17 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2754,7 +2758,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2768,13 +2772,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -2796,13 +2800,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2853,7 +2857,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2862,10 +2866,10 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2879,14 +2883,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2899,25 +2903,25 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2966,7 +2970,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2978,10 +2982,10 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2992,10 +2996,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3015,22 +3019,22 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -3079,7 +3083,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -3091,24 +3095,24 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3119,28 +3123,28 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3166,13 +3170,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3190,25 +3194,25 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3216,10 +3220,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3230,28 +3234,28 @@
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3277,13 +3281,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3301,25 +3305,25 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3327,10 +3331,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3341,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3353,13 +3357,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3410,13 +3414,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3425,7 +3429,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3436,14 +3440,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3462,16 +3466,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3509,19 +3513,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3533,10 +3537,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3547,10 +3551,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3570,22 +3574,22 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3634,7 +3638,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3646,24 +3650,24 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3674,7 +3678,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3686,13 +3690,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3743,13 +3747,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3758,7 +3762,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3769,14 +3773,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3795,16 +3799,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3842,19 +3846,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3866,10 +3870,10 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3880,10 +3884,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3894,7 +3898,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3903,29 +3907,29 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>76</v>
@@ -3967,36 +3971,36 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4007,7 +4011,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4016,19 +4020,19 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4078,36 +4082,36 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4118,7 +4122,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4127,20 +4131,20 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4189,36 +4193,36 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4229,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4238,20 +4242,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4300,36 +4304,36 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4340,7 +4344,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4349,22 +4353,22 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4413,36 +4417,36 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4453,7 +4457,7 @@
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4462,22 +4466,22 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4526,47 +4530,47 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4575,19 +4579,19 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4613,13 +4617,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4637,40 +4641,40 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4686,19 +4690,19 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4724,13 +4728,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4748,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4760,35 +4764,35 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4797,19 +4801,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4835,13 +4839,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4859,47 +4863,47 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4908,19 +4912,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4946,13 +4950,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4970,36 +4974,36 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5010,7 +5014,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5022,13 +5026,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5079,13 +5083,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -5094,7 +5098,7 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5105,14 +5109,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5131,16 +5135,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5178,19 +5182,19 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5202,10 +5206,10 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5216,10 +5220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5239,22 +5243,22 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5291,17 +5295,17 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5313,27 +5317,27 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
@@ -5352,22 +5356,22 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5416,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5428,24 +5432,24 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5456,7 +5460,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5468,13 +5472,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5525,13 +5529,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5540,7 +5544,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5551,14 +5555,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5577,16 +5581,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5624,19 +5628,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5648,10 +5652,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5662,10 +5666,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5673,10 +5677,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5685,29 +5689,29 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>76</v>
@@ -5749,36 +5753,36 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5789,7 +5793,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5798,19 +5802,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5860,36 +5864,36 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5900,7 +5904,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5909,20 +5913,20 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5971,36 +5975,36 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6011,7 +6015,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6020,20 +6024,20 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6082,36 +6086,36 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6122,7 +6126,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6131,22 +6135,22 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6195,39 +6199,39 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>76</v>
@@ -6246,22 +6250,22 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6310,7 +6314,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6322,24 +6326,24 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6350,7 +6354,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6362,13 +6366,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6419,13 +6423,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6434,7 +6438,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6445,14 +6449,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6471,16 +6475,16 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6518,19 +6522,19 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6542,10 +6546,10 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6556,10 +6560,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6567,10 +6571,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6579,29 +6583,29 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>76</v>
@@ -6643,36 +6647,36 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6683,7 +6687,7 @@
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6692,19 +6696,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6754,36 +6758,36 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6794,7 +6798,7 @@
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6803,20 +6807,20 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6865,36 +6869,36 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6905,7 +6909,7 @@
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6914,20 +6918,20 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6976,36 +6980,36 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7016,7 +7020,7 @@
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7025,22 +7029,22 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7089,39 +7093,39 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
@@ -7140,22 +7144,22 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7204,7 +7208,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7216,24 +7220,24 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7244,7 +7248,7 @@
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7256,13 +7260,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7313,13 +7317,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7328,7 +7332,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7339,14 +7343,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7365,16 +7369,16 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7412,19 +7416,19 @@
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7436,10 +7440,10 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7450,10 +7454,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7461,10 +7465,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7473,29 +7477,29 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>76</v>
@@ -7537,36 +7541,36 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7577,7 +7581,7 @@
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7586,19 +7590,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7648,36 +7652,36 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7688,7 +7692,7 @@
         <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7697,20 +7701,20 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7759,36 +7763,36 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7799,7 +7803,7 @@
         <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7808,20 +7812,20 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7870,36 +7874,36 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7910,7 +7914,7 @@
         <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7919,22 +7923,22 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7983,36 +7987,36 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8023,7 +8027,7 @@
         <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8032,22 +8036,22 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8096,47 +8100,47 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8145,16 +8149,16 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8205,36 +8209,36 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8245,7 +8249,7 @@
         <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8257,13 +8261,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8314,25 +8318,25 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8340,10 +8344,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8354,7 +8358,7 @@
         <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8366,13 +8370,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8423,25 +8427,25 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8449,10 +8453,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8463,7 +8467,7 @@
         <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8475,13 +8479,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8532,47 +8536,47 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8584,13 +8588,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8641,25 +8645,25 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8667,21 +8671,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8690,19 +8694,19 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8752,36 +8756,36 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8792,7 +8796,7 @@
         <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8804,16 +8808,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8863,22 +8867,22 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8889,10 +8893,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8915,16 +8919,16 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8974,7 +8978,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -8986,10 +8990,10 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9000,10 +9004,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9011,10 +9015,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9026,13 +9030,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9083,7 +9087,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -9095,10 +9099,10 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9109,10 +9113,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9123,7 +9127,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9135,13 +9139,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9192,13 +9196,13 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
@@ -9207,7 +9211,7 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9218,14 +9222,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9244,16 +9248,16 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9303,7 +9307,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
@@ -9315,10 +9319,10 @@
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9329,14 +9333,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9349,25 +9353,25 @@
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9416,7 +9420,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
@@ -9428,10 +9432,10 @@
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9442,10 +9446,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9456,7 +9460,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9468,16 +9472,16 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9503,13 +9507,13 @@
         <v>76</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>76</v>
@@ -9527,22 +9531,22 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9553,21 +9557,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9579,16 +9583,16 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9614,13 +9618,13 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -9638,10 +9642,10 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
@@ -9650,24 +9654,24 @@
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9678,7 +9682,7 @@
         <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9690,13 +9694,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9747,13 +9751,13 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
@@ -9762,7 +9766,7 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -9773,14 +9777,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9799,16 +9803,16 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9846,19 +9850,19 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9870,10 +9874,10 @@
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -9884,10 +9888,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9895,10 +9899,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9907,22 +9911,22 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9971,7 +9975,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -9983,24 +9987,24 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10011,7 +10015,7 @@
         <v>74</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -10023,13 +10027,13 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10080,13 +10084,13 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
@@ -10095,7 +10099,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10106,14 +10110,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10132,16 +10136,16 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10179,19 +10183,19 @@
         <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
@@ -10203,10 +10207,10 @@
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10217,10 +10221,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10228,10 +10232,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10240,29 +10244,29 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>76</v>
@@ -10304,36 +10308,36 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10344,7 +10348,7 @@
         <v>74</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10353,19 +10357,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10415,36 +10419,36 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10452,10 +10456,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10464,20 +10468,20 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10526,36 +10530,36 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10563,10 +10567,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10575,20 +10579,20 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10637,36 +10641,36 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10677,7 +10681,7 @@
         <v>74</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -10686,22 +10690,22 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -10750,36 +10754,36 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10790,7 +10794,7 @@
         <v>74</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10799,22 +10803,22 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -10863,47 +10867,47 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -10915,16 +10919,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10974,22 +10978,22 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11000,10 +11004,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11014,7 +11018,7 @@
         <v>74</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -11026,13 +11030,13 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11083,36 +11087,36 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11123,7 +11127,7 @@
         <v>74</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11135,16 +11139,16 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11170,13 +11174,13 @@
         <v>76</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>76</v>
@@ -11194,22 +11198,22 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
@@ -11220,10 +11224,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11234,7 +11238,7 @@
         <v>74</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11246,16 +11250,16 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11281,13 +11285,13 @@
         <v>76</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>76</v>
@@ -11305,22 +11309,22 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11331,10 +11335,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11357,16 +11361,16 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11416,7 +11420,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>74</v>
@@ -11428,10 +11432,10 @@
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
@@ -360,7 +360,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -904,7 +904,7 @@
     <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code|4.0.1</t>
   </si>
   <si>
     <t>substance/product:@@ -1082,7 +1082,7 @@
     <t>AllergyIntolerance.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1279,7 +1279,7 @@
     <t>Codes defining the type of the substance (including pharmaceutical products).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+    <t>http://hl7.org/fhir/ValueSet/substance-code|4.0.1</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].participation[typeCode=CSM].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]</t>
@@ -1304,7 +1304,7 @@
     <t>Clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>AL1-5</t>
@@ -1410,7 +1410,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
@@ -1729,17 +1729,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.06640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.76171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="235.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1748,25 +1748,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.39453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.62109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.6328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-AllergyIntolerance.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-AllergyIntolerance</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-AllergyIntolerance</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -451,7 +451,7 @@
     <t>sourceofinformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-sourceofinformation}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-sourceofinformation}
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Patient)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/StructureDefinition/no-basis-Patient)
 </t>
   </si>
   <si>
@@ -1146,7 +1146,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole|http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Patient|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/ig/StructureDefinition/no-basis-PractitionerRole|http://hl7.no/fhir/ig/StructureDefinition/no-basis-RelatedPerson)
 </t>
   </si>
   <si>
@@ -1169,7 +1169,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole|http://hl7.no/fhir/StructureDefinition/no-basis-Patient|http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/ig/StructureDefinition/no-basis-PractitionerRole|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Patient|http://hl7.no/fhir/ig/StructureDefinition/no-basis-RelatedPerson)
 </t>
   </si>
   <si>
@@ -1739,7 +1739,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="235.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="242.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
